--- a/local/銘柄分析_個別/Symbols.xlsx
+++ b/local/銘柄分析_個別/Symbols.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AM-LX15PRO\Documents\development\local\銘柄分析_個別\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="保有銘柄" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="symbol_watchlist" sheetId="2" r:id="rId5"/>
+    <sheet name="保有銘柄" sheetId="1" r:id="rId1"/>
+    <sheet name="symbol_watchlist" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -368,35 +376,46 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -405,7 +424,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -415,64 +434,57 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -662,23 +674,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="22.5"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,18 +703,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -708,7 +725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -722,7 +739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -730,11 +747,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -744,7 +761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -758,7 +775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
@@ -766,7 +783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
@@ -774,7 +791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -788,7 +805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
@@ -796,7 +813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
@@ -807,11 +824,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -821,7 +838,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
@@ -832,7 +849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
@@ -840,7 +857,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
@@ -851,7 +868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
@@ -865,7 +882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
@@ -873,7 +890,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>53</v>
       </c>
@@ -886,7 +903,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
@@ -895,7 +912,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
@@ -906,7 +923,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>61</v>
       </c>
@@ -917,7 +934,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
@@ -928,7 +945,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>67</v>
       </c>
@@ -939,7 +956,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
@@ -951,27 +968,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F17"/>
+    <hyperlink ref="F17" r:id="rId1"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="4" width="18.25"/>
+    <col min="3" max="4" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1018,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>79</v>
       </c>
@@ -1007,13 +1027,13 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9">
-        <v>799.0</v>
+        <v>799</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>82</v>
@@ -1022,7 +1042,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>84</v>
       </c>
@@ -1031,13 +1051,13 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9">
-        <v>749.0</v>
+        <v>749</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>81</v>
       </c>
       <c r="G3" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>86</v>
@@ -1046,7 +1066,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>88</v>
       </c>
@@ -1055,16 +1075,16 @@
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10">
-        <v>45819.49184027778</v>
+        <v>45819.491840277777</v>
       </c>
       <c r="E4" s="11">
-        <v>649.0</v>
+        <v>649</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G4" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>91</v>
@@ -1073,7 +1093,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>93</v>
       </c>
@@ -1082,13 +1102,13 @@
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11">
-        <v>281.1</v>
+        <v>281.10000000000002</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G5" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>95</v>
@@ -1097,7 +1117,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>97</v>
       </c>
@@ -1106,13 +1126,13 @@
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11">
-        <v>2368.0</v>
+        <v>2368</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G6" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>99</v>
@@ -1121,7 +1141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>101</v>
       </c>
@@ -1130,13 +1150,13 @@
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11">
-        <v>1059.0</v>
+        <v>1059</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G7" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>103</v>
@@ -1145,7 +1165,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>105</v>
       </c>
@@ -1154,13 +1174,13 @@
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11">
-        <v>1615.0</v>
+        <v>1615</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G8" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>107</v>
@@ -1169,7 +1189,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>109</v>
       </c>
@@ -1178,13 +1198,13 @@
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G9" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>111</v>
@@ -1193,7 +1213,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>113</v>
       </c>
@@ -1202,13 +1222,13 @@
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11">
-        <v>3125.0</v>
+        <v>3125</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G10" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>115</v>
@@ -1217,7 +1237,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1229,6 +1249,7 @@
       <c r="I11" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/local/銘柄分析_個別/Symbols.xlsx
+++ b/local/銘柄分析_個別/Symbols.xlsx
@@ -470,15 +470,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,95 +486,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -582,7 +582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -590,99 +590,99 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="2" t="s">
         <v>49</v>
       </c>
     </row>

--- a/local/銘柄分析_個別/Symbols.xlsx
+++ b/local/銘柄分析_個別/Symbols.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AM-LX15PRO\Documents\development\local\銘柄分析_個別\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.12.223\buffalo-ssd\USER\Document\development\local\銘柄分析_個別\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E170D5B3-0A9C-4E7D-8CF7-FF88403CF04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252"/>
+    <workbookView xWindow="3615" yWindow="960" windowWidth="21600" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保有銘柄" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Symbol</t>
   </si>
@@ -189,11 +190,15 @@
     <t>metapura</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>zeta</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -246,12 +251,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -466,19 +470,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,203 +490,212 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6031</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>49</v>
       </c>
     </row>

--- a/local/銘柄分析_個別/Symbols.xlsx
+++ b/local/銘柄分析_個別/Symbols.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.12.223\buffalo-ssd\USER\Document\development\local\銘柄分析_個別\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E170D5B3-0A9C-4E7D-8CF7-FF88403CF04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142433BE-4C3A-4DC2-96F8-B59D3C19AD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3615" yWindow="960" windowWidth="21600" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Symbol</t>
   </si>
@@ -194,12 +194,16 @@
     <t>zeta</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>6031.T</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -230,6 +234,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -251,11 +262,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -477,7 +489,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -523,10 +535,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -579,18 +591,18 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -603,13 +615,12 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>6031</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">

--- a/local/銘柄分析_個別/Symbols.xlsx
+++ b/local/銘柄分析_個別/Symbols.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.12.223\buffalo-ssd\USER\Document\development\local\銘柄分析_個別\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142433BE-4C3A-4DC2-96F8-B59D3C19AD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F693A81-2391-4ADB-9759-6A7D6F1EAE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3615" yWindow="960" windowWidth="21600" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -503,90 +503,90 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/local/銘柄分析_個別/Symbols.xlsx
+++ b/local/銘柄分析_個別/Symbols.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.12.223\buffalo-ssd\USER\Document\development\local\銘柄分析_個別\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AM-LX15PRO\Documents\development\local\銘柄分析_個別\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F693A81-2391-4ADB-9759-6A7D6F1EAE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="960" windowWidth="21600" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3612" yWindow="960" windowWidth="21600" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="保有銘柄" sheetId="1" r:id="rId1"/>
@@ -202,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -482,19 +481,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,103 +501,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -606,7 +605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
@@ -614,7 +613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>53</v>
       </c>
@@ -622,7 +621,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
@@ -630,7 +629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
@@ -638,7 +637,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
@@ -646,7 +645,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
@@ -654,7 +653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
@@ -662,7 +661,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
@@ -670,7 +669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
@@ -678,7 +677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
@@ -686,7 +685,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
@@ -694,7 +693,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
@@ -702,7 +701,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>48</v>
       </c>

--- a/local/銘柄分析_個別/Symbols.xlsx
+++ b/local/銘柄分析_個別/Symbols.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AM-LX15PRO\Documents\development\local\銘柄分析_個別\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.12.223\buffalo-ssd\USER\Document\development\local\銘柄分析_個別\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD8F0C2-5494-44FC-B004-BFE65D5C01B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3612" yWindow="960" windowWidth="21600" windowHeight="12960"/>
+    <workbookView xWindow="3960" yWindow="1305" windowWidth="21600" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="保有銘柄" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="保有銘柄" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">保有銘柄!$F$1:$F$28</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="117">
   <si>
     <t>Symbol</t>
   </si>
@@ -197,12 +202,215 @@
     <t>6031.T</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>190A</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CHORDIA</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>状況</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保有</t>
+    <rPh sb="0" eb="2">
+      <t>ホユウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保有</t>
+    <rPh sb="0" eb="2">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8551.T</t>
+  </si>
+  <si>
+    <t>蛹玲律譛ｬ驫陦・2025-06-24</t>
+  </si>
+  <si>
+    <t>8522.T</t>
+  </si>
+  <si>
+    <t>蜷榊商螻矩橿陦・2025-06-24</t>
+  </si>
+  <si>
+    <t>8524.T</t>
+  </si>
+  <si>
+    <t>蛹玲ｴ矩橿陦・2025-06-24</t>
+  </si>
+  <si>
+    <t>8570.T</t>
+  </si>
+  <si>
+    <t>繧､繧ｪ繝ｳ繝輔ぅ繝翫Φ繧ｷ繝｣繝ｫ繧ｵ繝ｼ繝薙せ</t>
+  </si>
+  <si>
+    <t>8544.T</t>
+  </si>
+  <si>
+    <t>莠ｬ闡蛾橿陦・2025-06-24</t>
+  </si>
+  <si>
+    <t>8541.T</t>
+  </si>
+  <si>
+    <t>諢帛ｪ幃橿陦・2025-06-24</t>
+  </si>
+  <si>
+    <t>8584.T</t>
+  </si>
+  <si>
+    <t>繧ｸ繝｣繝・け繧ｹ</t>
+  </si>
+  <si>
+    <t>8558.T</t>
+  </si>
+  <si>
+    <t>譚ｱ蜥碁橿陦・2025-06-24</t>
+  </si>
+  <si>
+    <t>8566.T</t>
+  </si>
+  <si>
+    <t>繝ｪ繧ｳ繝ｼ繝ｪ繝ｼ繧ｹ</t>
+  </si>
+  <si>
+    <t>8550.T</t>
+  </si>
+  <si>
+    <t>譬・惠驫陦・2025-06-24</t>
+  </si>
+  <si>
+    <t>8860.T</t>
+  </si>
+  <si>
+    <t>繝輔ず菴丞ｮ・2025-06-24</t>
+  </si>
+  <si>
+    <t>8881.T</t>
+  </si>
+  <si>
+    <t>譌･逾槭げ繝ｫ繝ｼ繝励・繝ｼ繝ｫ繝・ぅ繝ｳ繧ｰ繧ｹ</t>
+  </si>
+  <si>
+    <t>8892.T</t>
+  </si>
+  <si>
+    <t>譌･譛ｬ繧ｨ繧ｹ繧ｳ繝ｳ</t>
+  </si>
+  <si>
+    <t>8850.T</t>
+  </si>
+  <si>
+    <t>繧ｹ繧ｿ繝ｼ繝・さ繝ｼ繝昴Ξ繝ｼ繧ｷ繝ｧ繝ｳ</t>
+  </si>
+  <si>
+    <t>8864.T</t>
+  </si>
+  <si>
+    <t>遨ｺ貂ｯ譁ｽ險ｭ</t>
+  </si>
+  <si>
+    <t>8897.T</t>
+  </si>
+  <si>
+    <t>・ｭ・ｩ・ｲ・｡・ｲ・ｴ・ｨ繝帙・繝ｫ繝・ぅ繝ｳ繧ｰ繧ｹ</t>
+  </si>
+  <si>
+    <t>8877.T</t>
+  </si>
+  <si>
+    <t>繧ｨ繧ｹ繝ｪ繝ｼ繝・2025-06-24</t>
+  </si>
+  <si>
+    <t>8876.T</t>
+  </si>
+  <si>
+    <t>繝ｪ繝ｭ繧ｰ繝ｫ繝ｼ繝・2025-06-24</t>
+  </si>
+  <si>
+    <t>8848.T</t>
+  </si>
+  <si>
+    <t>繝ｬ繧ｪ繝代Ξ繧ｹ・抵ｼ・2025-06-24</t>
+  </si>
+  <si>
+    <t>9248.T</t>
+  </si>
+  <si>
+    <t>莠ｺ繝ｻ螟｢繝ｻ謚陦薙げ繝ｫ繝ｼ繝・2025-06-24</t>
+  </si>
+  <si>
+    <t>9216.T</t>
+  </si>
+  <si>
+    <t>繝薙・繧ｦ繧｣繧ｺ</t>
+  </si>
+  <si>
+    <t>9201.T</t>
+  </si>
+  <si>
+    <t>譌･譛ｬ闊ｪ遨ｺ</t>
+  </si>
+  <si>
+    <t>9147.T</t>
+  </si>
+  <si>
+    <t>・ｮ・ｩ・ｰ・ｰ・ｯ・ｮ縲・･・ｸ・ｰ・ｲ・･・ｳ・ｳ繝帙・繝ｫ繝・ぅ繝ｳ繧ｰ繧ｹ</t>
+  </si>
+  <si>
+    <t>9247.T</t>
+  </si>
+  <si>
+    <t>・ｴ・ｲ・･繝帙・繝ｫ繝・ぅ繝ｳ繧ｰ繧ｹ</t>
+  </si>
+  <si>
+    <t>9119.T</t>
+  </si>
+  <si>
+    <t>鬟ｯ驥取ｵｷ驕・2025-06-24</t>
+  </si>
+  <si>
+    <t>9143.T</t>
+  </si>
+  <si>
+    <t>・ｳ・ｧ繝帙・繝ｫ繝・ぅ繝ｳ繧ｰ繧ｹ</t>
+  </si>
+  <si>
+    <t>9202.T</t>
+  </si>
+  <si>
+    <t>・｡・ｮ・｡繝帙・繝ｫ繝・ぅ繝ｳ繧ｰ繧ｹ</t>
+  </si>
+  <si>
+    <t>9229.T</t>
+  </si>
+  <si>
+    <t>繧ｵ繝ｳ繧ｦ繧ｧ繝ｫ繧ｺ</t>
+  </si>
+  <si>
+    <t>9142.T</t>
+  </si>
+  <si>
+    <t>荵晏ｷ樊羅螳｢驩・％</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -240,6 +448,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -261,12 +483,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -481,235 +708,552 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99EB587-518E-4079-8FF1-0E1ACB839F72}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="F4" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="F5" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="F8" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="F9" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="F10" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="F11" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="F12" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="F15" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="F16" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="F18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="F19" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="F24" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="F25" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="F26" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F28" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F28" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/local/銘柄分析_個別/Symbols.xlsx
+++ b/local/銘柄分析_個別/Symbols.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.12.223\buffalo-ssd\USER\Document\development\local\銘柄分析_個別\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD8F0C2-5494-44FC-B004-BFE65D5C01B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C08C175-6866-494B-A3BF-A6D02DF5D0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1305" windowWidth="21600" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24000" yWindow="0" windowWidth="21600" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="保有銘柄" sheetId="1" r:id="rId2"/>
+    <sheet name="保有銘柄" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">保有銘柄!$F$1:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">保有銘柄!$F$1:$F$17</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -708,10 +708,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="F1:F25" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99EB587-518E-4079-8FF1-0E1ACB839F72}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -961,301 +1257,4 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="F1:F28" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>